--- a/data/trans_bre/P25_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_4-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-27,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-41,94%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-47,85%</t>
+          <t>-36,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-63,04%</t>
+          <t>-57,2%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-46,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-36,99%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 2,37</t>
+          <t>-10,76; 3,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 0,4</t>
+          <t>-11,24; -1,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,35; -0,85</t>
+          <t>-10,13; -0,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -2,14</t>
+          <t>-7,17; 2,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-68,83; 60,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-71,81; 9,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,68; -6,51</t>
+          <t>-81,62; 72,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,16; -29,49</t>
+          <t>-80,71; -9,77</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-69,73; -6,72</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-82,94; 116,54</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>-28,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>-21,34%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41,62%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-55,39%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,58</t>
+          <t>-3,85; 3,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,07</t>
+          <t>-4,16; 1,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,9</t>
+          <t>-1,13; 4,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,41</t>
+          <t>-4,62; 0,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,52; 198,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,85; 130,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 197,99</t>
+          <t>-81,12; 199,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,62; 85,39</t>
+          <t>-74,27; 89,98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-41,35; 255,77</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-88,96; 36,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-32,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-24,35%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>55,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 0,89</t>
+          <t>-2,37; 2,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,92</t>
+          <t>-2,75; 1,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,59</t>
+          <t>-1,28; 1,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; -0,87</t>
+          <t>-1,72; 5,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,88; 80,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,3; 73,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 237,0</t>
+          <t>-74,27; 333,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-77,8; 105,51</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-69,31; 228,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-50,58; 443,79</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -910,7 +1062,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,77%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-43,9%</t>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-10,84%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,31</t>
+          <t>-2,36; 1,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,37</t>
+          <t>-4,01; 2,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -0,51</t>
+          <t>-3,27; 3,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 52,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,28; 13,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 28,48</t>
+          <t>-60,18; 109,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,28; -8,66</t>
+          <t>-80,94; 179,52</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-68,86; 164,36</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-18,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-31,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-10,95%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-14,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 0,95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 0,28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 1,37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 1,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-52,04; 36,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-56,82; 11,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-44,18; 46,6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-49,63; 38,91</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_4-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,05</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,16</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-36,72%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-57,2%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-46,09%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-36,99%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-3.411816559041307</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.674904471576459</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.226951576787355</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.141402159213805</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.4057419301328087</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5892702622183865</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.4731764795181581</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.3717429745650814</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,76; 3,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,24; -1,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,13; -0,6</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 2,73</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-81,62; 72,16</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-80,71; -9,77</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-69,73; -6,72</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-82,94; 116,54</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.82124943873898</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.31553690707719</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.47643439020841</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.953501515148175</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.8240069427846495</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.8220660944595075</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.7127659733677096</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.8249214469894145</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.59722463696601</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-1.351038057246592</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.8588568421385427</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.581337366768705</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.6053244236715887</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.1361524890761817</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.09303299722190887</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.255793887526093</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,61</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-28,09%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-21,34%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>41,62%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-55,39%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 3,61</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 1,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 4,51</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 0,4</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-81,12; 199,46</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-74,27; 89,98</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-41,35; 255,77</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-88,96; 36,16</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-1.705845105087909</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.9110719408577609</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7267383967101051</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.657717501759</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.4356716260899705</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2564725634648873</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.2831555652536303</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.5657599754095478</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-2,35%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-24,35%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>19,35%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>55,56%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.856958131672789</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.415385718615687</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.439649355541285</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.622545605194897</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.8512152880361796</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7678856844955885</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4478941172741862</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.8904283294782177</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 2,19</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 1,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 1,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 5,47</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-74,27; 333,82</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-77,8; 105,51</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-69,31; 228,9</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-50,58; 443,79</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.697427062028637</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.422251066836352</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.939218241862308</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3281775105956267</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.055313175534332</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7492577924686284</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.269746699935711</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3624920734714825</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-7,31%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-1,71%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-10,84%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.1329738270549864</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5724392046666544</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2549515540285214</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.289670930461636</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.07449670866614796</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2421216272925559</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1922732048658759</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4771558756281</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 1,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 2,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 3,21</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-60,18; 109,29</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-80,94; 179,52</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-68,86; 164,36</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.171773825552296</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.852322024124777</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.326138071540131</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.940602348099218</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.7261900598865203</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7880930702914353</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6892011702906627</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5307556698529386</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.476840281006958</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.187009975964797</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.593677771921621</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.965101833497882</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>3.953618646432017</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.095616917540353</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.305728890550633</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>3.894360555253557</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-18,64%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-31,24%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-10,95%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-14,22%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 0,95</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 0,28</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 1,37</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 1,03</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-52,04; 36,77</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-56,82; 11,88</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-44,18; 46,6</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-49,63; 38,91</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.239009588424901</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.740569312935906</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.5827859935787265</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.6089090467966882</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.3199283862849345</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3954841239788529</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1469885064529116</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1797589745688694</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.120538667627057</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.74947256957909</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.217517355250647</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.580283469382977</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.6392315157092078</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6406492101478201</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4586651915880019</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.5717204952886086</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.9007068939329269</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.2751188908958002</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.098352703536649</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.146310425737113</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.4166277624431724</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.04169366604860245</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3705163845602129</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5112658636066304</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
